--- a/bots/crawl_ch/output/vegi_coop_2022-12-14.xlsx
+++ b/bots/crawl_ch/output/vegi_coop_2022-12-14.xlsx
@@ -575,7 +575,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -713,7 +713,7 @@
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -778,7 +778,7 @@
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -847,7 +847,7 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -912,7 +912,7 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -977,7 +977,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -1046,7 +1046,7 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -1310,7 +1310,7 @@
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -1375,7 +1375,7 @@
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -1444,7 +1444,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -1513,7 +1513,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -1582,7 +1582,7 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -1720,7 +1720,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -1858,7 +1858,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -1923,7 +1923,7 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -1992,7 +1992,7 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -2126,7 +2126,7 @@
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -2191,7 +2191,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -2325,7 +2325,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -2394,7 +2394,7 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -2463,7 +2463,7 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -2532,7 +2532,7 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -2674,7 +2674,7 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -2743,7 +2743,7 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -2812,7 +2812,7 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -2881,7 +2881,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -2950,7 +2950,7 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -3019,7 +3019,7 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -3088,7 +3088,7 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -3157,7 +3157,7 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -3222,7 +3222,7 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -3287,7 +3287,7 @@
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -3356,7 +3356,7 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -3425,7 +3425,7 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -3494,7 +3494,7 @@
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -3563,7 +3563,7 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -3628,7 +3628,7 @@
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -3693,7 +3693,7 @@
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -3766,7 +3766,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -3835,7 +3835,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -3908,7 +3908,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -4042,7 +4042,7 @@
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -4111,7 +4111,7 @@
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -4180,7 +4180,7 @@
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -4249,7 +4249,7 @@
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -4314,7 +4314,7 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -4379,7 +4379,7 @@
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -4448,7 +4448,7 @@
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -4517,7 +4517,7 @@
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -4582,7 +4582,7 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -4651,7 +4651,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -4724,7 +4724,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -4789,7 +4789,7 @@
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -4858,7 +4858,7 @@
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -4923,7 +4923,7 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -4992,7 +4992,7 @@
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -5057,7 +5057,7 @@
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -5126,7 +5126,7 @@
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -5195,7 +5195,7 @@
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -5260,7 +5260,7 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -5333,7 +5333,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -5398,7 +5398,7 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -5467,7 +5467,7 @@
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -5520,7 +5520,7 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -5585,7 +5585,7 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -5654,7 +5654,7 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -5719,7 +5719,7 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -5788,7 +5788,7 @@
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -5853,7 +5853,7 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -5906,7 +5906,7 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -5975,7 +5975,7 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -6038,7 +6038,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -6103,7 +6103,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -6168,7 +6168,7 @@
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -6237,7 +6237,7 @@
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -6306,7 +6306,7 @@
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -6371,7 +6371,7 @@
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -6420,7 +6420,7 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -6485,7 +6485,7 @@
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -6550,7 +6550,7 @@
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -6619,7 +6619,7 @@
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -6688,7 +6688,7 @@
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -6757,7 +6757,7 @@
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -6826,7 +6826,7 @@
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -6895,7 +6895,7 @@
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -6964,7 +6964,7 @@
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -7029,7 +7029,7 @@
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -7098,7 +7098,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -7163,7 +7163,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -7232,7 +7232,7 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -7301,7 +7301,7 @@
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -7366,7 +7366,7 @@
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -7435,7 +7435,7 @@
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -7504,7 +7504,7 @@
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -7569,7 +7569,7 @@
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -7642,7 +7642,7 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -7707,7 +7707,7 @@
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -7776,7 +7776,7 @@
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -7841,7 +7841,7 @@
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -7910,7 +7910,7 @@
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -7979,7 +7979,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -8048,7 +8048,7 @@
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -8113,7 +8113,7 @@
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -8182,7 +8182,7 @@
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -8251,7 +8251,7 @@
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -8316,7 +8316,7 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -8389,7 +8389,7 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -8458,7 +8458,7 @@
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -8531,7 +8531,7 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -8596,7 +8596,7 @@
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -8665,7 +8665,7 @@
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -8728,13 +8728,13 @@
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Kräuterseitling ca. 100g - Online kein Bestand 2.95 Schweizer Franken</t>
+          <t>Naturaplan Bio Kräuterseitling ca. 100g 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -8803,7 +8803,7 @@
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -8872,7 +8872,7 @@
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -8941,7 +8941,7 @@
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -9010,7 +9010,7 @@
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -9075,7 +9075,7 @@
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -9144,7 +9144,7 @@
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -9217,7 +9217,7 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -9286,7 +9286,7 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -9355,7 +9355,7 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -9420,7 +9420,7 @@
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -9489,7 +9489,7 @@
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -9558,7 +9558,7 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -9623,7 +9623,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -9692,7 +9692,7 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -9757,7 +9757,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -9826,7 +9826,7 @@
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -9899,7 +9899,7 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -9968,7 +9968,7 @@
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -10037,7 +10037,7 @@
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -10104,7 +10104,7 @@
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -10177,7 +10177,7 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -10246,7 +10246,7 @@
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -10311,7 +10311,7 @@
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -10384,7 +10384,7 @@
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -10449,7 +10449,7 @@
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -10518,7 +10518,7 @@
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -10583,7 +10583,7 @@
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -10652,7 +10652,7 @@
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -10721,7 +10721,7 @@
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -10790,7 +10790,7 @@
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -10859,7 +10859,7 @@
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -10924,7 +10924,7 @@
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -10989,7 +10989,7 @@
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -11058,7 +11058,7 @@
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -11127,7 +11127,7 @@
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -11196,7 +11196,7 @@
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -11263,7 +11263,7 @@
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -11336,7 +11336,7 @@
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -11405,7 +11405,7 @@
       <c r="N162" t="inlineStr"/>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -11478,7 +11478,7 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -11531,7 +11531,7 @@
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -11600,7 +11600,7 @@
       <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -11673,7 +11673,7 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -11738,7 +11738,7 @@
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -11803,7 +11803,7 @@
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -11876,7 +11876,7 @@
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -11949,7 +11949,7 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -12014,7 +12014,7 @@
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -12083,7 +12083,7 @@
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -12152,7 +12152,7 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -12225,7 +12225,7 @@
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -12294,7 +12294,7 @@
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -12363,7 +12363,7 @@
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -12432,7 +12432,7 @@
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -12497,7 +12497,7 @@
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -12566,7 +12566,7 @@
       <c r="N179" t="inlineStr"/>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -12635,7 +12635,7 @@
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -12704,7 +12704,7 @@
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -12773,7 +12773,7 @@
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -12846,7 +12846,7 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -12909,7 +12909,7 @@
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -12982,7 +12982,7 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -13051,7 +13051,7 @@
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -13124,7 +13124,7 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -13197,7 +13197,7 @@
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -13266,7 +13266,7 @@
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -13335,7 +13335,7 @@
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -13404,7 +13404,7 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -13473,7 +13473,7 @@
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -13542,7 +13542,7 @@
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -13611,7 +13611,7 @@
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -13678,7 +13678,7 @@
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -13731,7 +13731,7 @@
       <c r="N196" t="inlineStr"/>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -13800,7 +13800,7 @@
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -13865,7 +13865,7 @@
       <c r="N198" t="inlineStr"/>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -13934,7 +13934,7 @@
       <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -14007,7 +14007,7 @@
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -14076,7 +14076,7 @@
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -14141,7 +14141,7 @@
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -14214,7 +14214,7 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -14279,7 +14279,7 @@
       <c r="N204" t="inlineStr"/>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -14352,7 +14352,7 @@
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -14421,7 +14421,7 @@
       <c r="N206" t="inlineStr"/>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -14490,7 +14490,7 @@
       <c r="N207" t="inlineStr"/>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -14559,7 +14559,7 @@
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -14628,7 +14628,7 @@
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -14693,7 +14693,7 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -14740,7 +14740,7 @@
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -14805,7 +14805,7 @@
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -14870,7 +14870,7 @@
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -14939,7 +14939,7 @@
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -15012,7 +15012,7 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -15085,7 +15085,7 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -15158,7 +15158,7 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -15223,7 +15223,7 @@
       <c r="N218" t="inlineStr"/>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -15292,7 +15292,7 @@
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -15361,7 +15361,7 @@
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -15426,7 +15426,7 @@
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -15495,7 +15495,7 @@
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -15564,7 +15564,7 @@
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -15637,7 +15637,7 @@
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -15702,7 +15702,7 @@
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -15767,7 +15767,7 @@
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -15840,7 +15840,7 @@
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -15909,7 +15909,7 @@
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -15978,7 +15978,7 @@
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -16043,7 +16043,7 @@
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -16116,7 +16116,7 @@
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -16189,7 +16189,7 @@
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -16262,7 +16262,7 @@
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -16327,7 +16327,7 @@
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -16396,7 +16396,7 @@
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -16465,7 +16465,7 @@
       <c r="N236" t="inlineStr"/>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -16534,7 +16534,7 @@
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -16599,7 +16599,7 @@
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -16668,7 +16668,7 @@
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -16733,7 +16733,7 @@
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -16802,7 +16802,7 @@
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -16875,7 +16875,7 @@
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -16948,7 +16948,7 @@
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -17017,7 +17017,7 @@
       <c r="N244" t="inlineStr"/>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -17086,7 +17086,7 @@
       <c r="N245" t="inlineStr"/>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -17159,7 +17159,7 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -17232,7 +17232,7 @@
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -17301,7 +17301,7 @@
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -17370,7 +17370,7 @@
       <c r="N249" t="inlineStr"/>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -17443,7 +17443,7 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -17516,7 +17516,7 @@
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -17589,7 +17589,7 @@
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -17662,7 +17662,7 @@
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -17727,7 +17727,7 @@
       <c r="N254" t="inlineStr"/>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -17800,7 +17800,7 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -17865,7 +17865,7 @@
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -17938,7 +17938,7 @@
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -18007,7 +18007,7 @@
       <c r="N258" t="inlineStr"/>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -18076,7 +18076,7 @@
       <c r="N259" t="inlineStr"/>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -18149,7 +18149,7 @@
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -18214,7 +18214,7 @@
       <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -18279,7 +18279,7 @@
       <c r="N262" t="inlineStr"/>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -18348,7 +18348,7 @@
       <c r="N263" t="inlineStr"/>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -18421,7 +18421,7 @@
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -18494,7 +18494,7 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -18563,7 +18563,7 @@
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -18632,7 +18632,7 @@
       <c r="N267" t="inlineStr"/>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -18683,7 +18683,7 @@
       <c r="N268" t="inlineStr"/>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -18752,7 +18752,7 @@
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -18817,7 +18817,7 @@
       <c r="N270" t="inlineStr"/>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -18890,7 +18890,7 @@
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -18953,7 +18953,7 @@
       </c>
       <c r="M272" t="inlineStr">
         <is>
-          <t>Délicorn Quorn Schnitzel Mozzarella &amp;amp; Pesto 2x  240g 20% Aktion 9.50 Schweizer Franken statt 11.90 Schweizer Franken</t>
+          <t>Délicorn Quorn Schnitzel Mozzarella &amp;amp; Pesto 2x  240g - Online kein Bestand 20% Aktion 9.50 Schweizer Franken statt 11.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="N272" t="inlineStr">
@@ -18963,7 +18963,7 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -19032,7 +19032,7 @@
       <c r="N273" t="inlineStr"/>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -19101,7 +19101,7 @@
       <c r="N274" t="inlineStr"/>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -19174,7 +19174,7 @@
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -19243,7 +19243,7 @@
       <c r="N276" t="inlineStr"/>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -19312,7 +19312,7 @@
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -19381,7 +19381,7 @@
       <c r="N278" t="inlineStr"/>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -19454,7 +19454,7 @@
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -19523,7 +19523,7 @@
       <c r="N280" t="inlineStr"/>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -19596,7 +19596,7 @@
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -19663,7 +19663,7 @@
       <c r="N282" t="inlineStr"/>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -19732,7 +19732,7 @@
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -19805,7 +19805,7 @@
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -19874,7 +19874,7 @@
       <c r="N285" t="inlineStr"/>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -19947,7 +19947,7 @@
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -20020,7 +20020,7 @@
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -20089,7 +20089,7 @@
       <c r="N288" t="inlineStr"/>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -20152,7 +20152,7 @@
       <c r="N289" t="inlineStr"/>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -20225,7 +20225,7 @@
       </c>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -20298,7 +20298,7 @@
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -20367,7 +20367,7 @@
       <c r="N292" t="inlineStr"/>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -20430,7 +20430,7 @@
       <c r="N293" t="inlineStr"/>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -20499,7 +20499,7 @@
       <c r="N294" t="inlineStr"/>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -20572,7 +20572,7 @@
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -20637,41 +20637,45 @@
       <c r="N296" t="inlineStr"/>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>6389403</t>
+          <t>6638724</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Krautstiel</t>
+          <t>Betty Bossi Coleslaw Salat</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/blattgemuese-artischocken/krautstiel/p/6389403</t>
+          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertige-salate/betty-bossi-coleslaw-salat/p/6638724</t>
         </is>
       </c>
       <c r="D297" t="n">
         <v>3</v>
       </c>
       <c r="E297" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F297" t="inlineStr"/>
+        <v>2.5</v>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>0.66/100g</t>
+          <t>1.35/100g</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
@@ -20681,7 +20685,7 @@
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="K297" t="inlineStr">
@@ -20691,56 +20695,56 @@
       </c>
       <c r="L297" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'blattgemuese-artischocken']</t>
+          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertige-salate']</t>
         </is>
       </c>
       <c r="M297" t="inlineStr">
         <is>
-          <t>Krautstiel 3.30 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N297" t="inlineStr"/>
+          <t>Betty Bossi Coleslaw Salat 4.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N297" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>6638724</t>
+          <t>6389403</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Betty Bossi Coleslaw Salat</t>
+          <t>Krautstiel</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertige-salate/betty-bossi-coleslaw-salat/p/6638724</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/blattgemuese-artischocken/krautstiel/p/6389403</t>
         </is>
       </c>
       <c r="D298" t="n">
         <v>3</v>
       </c>
       <c r="E298" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F298" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
+        <v>4.5</v>
+      </c>
+      <c r="F298" t="inlineStr"/>
       <c r="G298" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>1.35/100g</t>
+          <t>0.66/100g</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
@@ -20750,7 +20754,7 @@
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
@@ -20760,22 +20764,18 @@
       </c>
       <c r="L298" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertige-salate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'blattgemuese-artischocken']</t>
         </is>
       </c>
       <c r="M298" t="inlineStr">
         <is>
-          <t>Betty Bossi Coleslaw Salat 4.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N298" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Krautstiel 3.30 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N298" t="inlineStr"/>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -20844,7 +20844,7 @@
       <c r="N299" t="inlineStr"/>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -20917,7 +20917,7 @@
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -20986,7 +20986,7 @@
       <c r="N301" t="inlineStr"/>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -21055,7 +21055,7 @@
       <c r="N302" t="inlineStr"/>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -21128,7 +21128,7 @@
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -21197,7 +21197,7 @@
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -21266,7 +21266,7 @@
       <c r="N305" t="inlineStr"/>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -21339,7 +21339,7 @@
       </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -21404,7 +21404,7 @@
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -21477,7 +21477,7 @@
       </c>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -21550,7 +21550,7 @@
       </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -21623,7 +21623,7 @@
       </c>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -21688,7 +21688,7 @@
       <c r="N311" t="inlineStr"/>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -21757,7 +21757,7 @@
       <c r="N312" t="inlineStr"/>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -21822,7 +21822,7 @@
       <c r="N313" t="inlineStr"/>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -21887,7 +21887,7 @@
       <c r="N314" t="inlineStr"/>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -21960,7 +21960,7 @@
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -22025,7 +22025,7 @@
       <c r="N316" t="inlineStr"/>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -22098,7 +22098,7 @@
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -22167,7 +22167,7 @@
       <c r="N318" t="inlineStr"/>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -22236,7 +22236,7 @@
       <c r="N319" t="inlineStr"/>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -22305,7 +22305,7 @@
       <c r="N320" t="inlineStr"/>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -22374,7 +22374,7 @@
       <c r="N321" t="inlineStr"/>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -22447,7 +22447,7 @@
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -22516,7 +22516,7 @@
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -22589,7 +22589,7 @@
       </c>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -22662,7 +22662,7 @@
       </c>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -22731,7 +22731,7 @@
       <c r="N326" t="inlineStr"/>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -22804,7 +22804,7 @@
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -22877,7 +22877,7 @@
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -22946,7 +22946,7 @@
       <c r="N329" t="inlineStr"/>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -23015,7 +23015,7 @@
       <c r="N330" t="inlineStr"/>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -23088,7 +23088,7 @@
       </c>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -23157,7 +23157,7 @@
       <c r="N332" t="inlineStr"/>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -23226,7 +23226,7 @@
       <c r="N333" t="inlineStr"/>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -23291,7 +23291,7 @@
       <c r="N334" t="inlineStr"/>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -23364,7 +23364,7 @@
       </c>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -23437,7 +23437,7 @@
       </c>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -23510,7 +23510,7 @@
       </c>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -23575,7 +23575,7 @@
       <c r="N338" t="inlineStr"/>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -23648,7 +23648,7 @@
       </c>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -23711,7 +23711,7 @@
       <c r="N340" t="inlineStr"/>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -23784,7 +23784,7 @@
       </c>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -23857,7 +23857,7 @@
       </c>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -23926,7 +23926,7 @@
       <c r="N343" t="inlineStr"/>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -23999,7 +23999,7 @@
       </c>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -24072,7 +24072,7 @@
       </c>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -24145,7 +24145,7 @@
       </c>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -24218,7 +24218,7 @@
       </c>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -24287,7 +24287,7 @@
       <c r="N348" t="inlineStr"/>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -24360,7 +24360,7 @@
       </c>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -24429,7 +24429,7 @@
       <c r="N350" t="inlineStr"/>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -24494,7 +24494,7 @@
       <c r="N351" t="inlineStr"/>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -24559,7 +24559,7 @@
       <c r="N352" t="inlineStr"/>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -24632,7 +24632,7 @@
       </c>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -24705,7 +24705,7 @@
       </c>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -24778,7 +24778,7 @@
       </c>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -24851,7 +24851,7 @@
       </c>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -24920,7 +24920,7 @@
       <c r="N357" t="inlineStr"/>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -24993,7 +24993,7 @@
       </c>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -25062,7 +25062,7 @@
       <c r="N359" t="inlineStr"/>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -25135,7 +25135,7 @@
       </c>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -25206,7 +25206,7 @@
       </c>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -25277,7 +25277,7 @@
       </c>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -25350,7 +25350,7 @@
       </c>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -25423,7 +25423,7 @@
       </c>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -25496,7 +25496,7 @@
       </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -25561,7 +25561,7 @@
       <c r="N366" t="inlineStr"/>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -25634,7 +25634,7 @@
       </c>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -25707,7 +25707,7 @@
       </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -25780,7 +25780,7 @@
       </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -25849,7 +25849,7 @@
       <c r="N370" t="inlineStr"/>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -25922,7 +25922,7 @@
       </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -25995,7 +25995,7 @@
       </c>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -26068,7 +26068,7 @@
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -26141,7 +26141,7 @@
       </c>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -26206,7 +26206,7 @@
       <c r="N375" t="inlineStr"/>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -26269,7 +26269,7 @@
       <c r="N376" t="inlineStr"/>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -26338,7 +26338,7 @@
       <c r="N377" t="inlineStr"/>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -26407,7 +26407,7 @@
       <c r="N378" t="inlineStr"/>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -26480,7 +26480,7 @@
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -26545,7 +26545,7 @@
       <c r="N380" t="inlineStr"/>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -26618,7 +26618,7 @@
       </c>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -26691,7 +26691,7 @@
       </c>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -26764,7 +26764,7 @@
       </c>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -26837,7 +26837,7 @@
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -26910,7 +26910,7 @@
       </c>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -26983,7 +26983,7 @@
       </c>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -27056,7 +27056,7 @@
       </c>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -27121,7 +27121,7 @@
       <c r="N388" t="inlineStr"/>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -27190,7 +27190,7 @@
       <c r="N389" t="inlineStr"/>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -27263,7 +27263,7 @@
       </c>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -27326,45 +27326,45 @@
       <c r="N391" t="inlineStr"/>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>6820927</t>
+          <t>6764726</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Findus Green Cuisine Nuggets</t>
+          <t>Prix Garantie Sauerkraut roh</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/findus-green-cuisine-nuggets/p/6820927</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/sauerkraut-rotkraut/prix-garantie-sauerkraut-roh/p/6764726</t>
         </is>
       </c>
       <c r="D392" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E392" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F392" t="inlineStr">
         <is>
-          <t>Findus</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G392" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>2.38/100g</t>
+          <t>0.30/100g</t>
         </is>
       </c>
       <c r="I392" t="inlineStr">
@@ -27374,7 +27374,7 @@
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="K392" t="inlineStr">
@@ -27384,182 +27384,178 @@
       </c>
       <c r="L392" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'pflanzliche-alternativen-zu-fleisch']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'sauerkraut-rotkraut']</t>
         </is>
       </c>
       <c r="M392" t="inlineStr">
         <is>
-          <t>Findus Green Cuisine Nuggets 5.95 Schweizer Franken</t>
+          <t>Prix Garantie Sauerkraut roh 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N392" t="inlineStr">
         <is>
-          <t>['frozen']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>6764726</t>
+          <t>7112792</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Prix Garantie Sauerkraut roh</t>
+          <t>Clementinen mit Blatt ca. 1kg</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/sauerkraut-rotkraut/prix-garantie-sauerkraut-roh/p/6764726</t>
-        </is>
-      </c>
-      <c r="D393" t="n">
-        <v>2</v>
-      </c>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/zitrusfruechte/clementinen-mit-blatt-ca/p/7112792</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr"/>
       <c r="E393" t="n">
-        <v>5</v>
-      </c>
-      <c r="F393" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F393" t="inlineStr"/>
       <c r="G393" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>0.30/100g</t>
+          <t>4.80/1kg</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="K393" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="L393" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'sauerkraut-rotkraut']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'zitrusfruechte']</t>
         </is>
       </c>
       <c r="M393" t="inlineStr">
         <is>
-          <t>Prix Garantie Sauerkraut roh 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N393" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Clementinen mit Blatt ca. 1kg 4.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N393" t="inlineStr"/>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>7112792</t>
+          <t>4069878</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Clementinen mit Blatt ca. 1kg</t>
+          <t>Fairtrade Kokosnuss 1 Stück</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/zitrusfruechte/clementinen-mit-blatt-ca/p/7112792</t>
-        </is>
-      </c>
-      <c r="D394" t="inlineStr"/>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/weitere-exotische-fruechte/fairtrade-kokosnuss-1-stueck/p/4069878</t>
+        </is>
+      </c>
+      <c r="D394" t="n">
+        <v>7</v>
+      </c>
       <c r="E394" t="n">
-        <v>0</v>
-      </c>
-      <c r="F394" t="inlineStr"/>
+        <v>2.5</v>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
       <c r="G394" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>4.80/1kg</t>
+          <t>1.95/1ST</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="K394" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="L394" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'zitrusfruechte']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'weitere-exotische-fruechte']</t>
         </is>
       </c>
       <c r="M394" t="inlineStr">
         <is>
-          <t>Clementinen mit Blatt ca. 1kg 4.80 Schweizer Franken</t>
+          <t>Fairtrade Kokosnuss 1 Stück 1.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N394" t="inlineStr"/>
       <c r="O394" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>4069878</t>
+          <t>4655212</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Fairtrade Kokosnuss 1 Stück</t>
+          <t>Betty Bossi Mini Kopfsalat rot</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/weitere-exotische-fruechte/fairtrade-kokosnuss-1-stueck/p/4069878</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/betty-bossi-mini-kopfsalat-rot/p/4655212</t>
         </is>
       </c>
       <c r="D395" t="n">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="E395" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="F395" t="inlineStr">
         <is>
@@ -27568,67 +27564,71 @@
       </c>
       <c r="G395" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>1.95/1ST</t>
+          <t>2.13/100g</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="K395" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L395" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'weitere-exotische-fruechte']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
         </is>
       </c>
       <c r="M395" t="inlineStr">
         <is>
-          <t>Fairtrade Kokosnuss 1 Stück 1.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N395" t="inlineStr"/>
+          <t>Betty Bossi Mini Kopfsalat rot 3.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N395" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O395" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>4655212</t>
+          <t>5987849</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Betty Bossi Mini Kopfsalat rot</t>
+          <t>Betty Bossi Gartensalat mit Kräuter</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/betty-bossi-mini-kopfsalat-rot/p/4655212</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/betty-bossi-gartensalat-mit-kraeuter/p/5987849</t>
         </is>
       </c>
       <c r="D396" t="n">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="E396" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F396" t="inlineStr">
         <is>
@@ -27637,12 +27637,12 @@
       </c>
       <c r="G396" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>2.13/100g</t>
+          <t>1.98/100g</t>
         </is>
       </c>
       <c r="I396" t="inlineStr">
@@ -27652,7 +27652,7 @@
       </c>
       <c r="J396" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="K396" t="inlineStr">
@@ -27667,55 +27667,51 @@
       </c>
       <c r="M396" t="inlineStr">
         <is>
-          <t>Betty Bossi Mini Kopfsalat rot 3.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N396" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Betty Bossi Gartensalat mit Kräuter 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N396" t="inlineStr"/>
       <c r="O396" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>5987849</t>
+          <t>6508237</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Betty Bossi Gartensalat mit Kräuter</t>
+          <t>Garden Gourmet Sensational Gehacktes</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/betty-bossi-gartensalat-mit-kraeuter/p/5987849</t>
+          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/garden-gourmet-sensational-gehacktes/p/6508237</t>
         </is>
       </c>
       <c r="D397" t="n">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="E397" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F397" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Garden Gourmet</t>
         </is>
       </c>
       <c r="G397" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H397" t="inlineStr">
         <is>
-          <t>1.98/100g</t>
+          <t>2.98/100g</t>
         </is>
       </c>
       <c r="I397" t="inlineStr">
@@ -27725,7 +27721,7 @@
       </c>
       <c r="J397" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="K397" t="inlineStr">
@@ -27735,42 +27731,46 @@
       </c>
       <c r="L397" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'pflanzliche-alternativen-zu-fleisch']</t>
         </is>
       </c>
       <c r="M397" t="inlineStr">
         <is>
-          <t>Betty Bossi Gartensalat mit Kräuter 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N397" t="inlineStr"/>
+          <t>Garden Gourmet Sensational Gehacktes 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N397" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O397" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>6508237</t>
+          <t>7048923</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Garden Gourmet Sensational Gehacktes</t>
+          <t>Garden Gourmet Sensational Schnitzel</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/garden-gourmet-sensational-gehacktes/p/6508237</t>
+          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/garden-gourmet-sensational-schnitzel/p/7048923</t>
         </is>
       </c>
       <c r="D398" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="E398" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F398" t="inlineStr">
         <is>
@@ -27779,12 +27779,12 @@
       </c>
       <c r="G398" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H398" t="inlineStr">
         <is>
-          <t>2.98/100g</t>
+          <t>3.86/100g</t>
         </is>
       </c>
       <c r="I398" t="inlineStr">
@@ -27794,7 +27794,7 @@
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="K398" t="inlineStr">
@@ -27809,55 +27809,55 @@
       </c>
       <c r="M398" t="inlineStr">
         <is>
-          <t>Garden Gourmet Sensational Gehacktes 5.95 Schweizer Franken</t>
+          <t>Garden Gourmet Sensational Schnitzel 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N398" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O398" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>7048923</t>
+          <t>6674353</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Garden Gourmet Sensational Schnitzel</t>
+          <t>Yolo Schnitzel</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/garden-gourmet-sensational-schnitzel/p/7048923</t>
+          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/yolo-schnitzel/p/6674353</t>
         </is>
       </c>
       <c r="D399" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E399" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F399" t="inlineStr">
         <is>
-          <t>Garden Gourmet</t>
+          <t>Yolo</t>
         </is>
       </c>
       <c r="G399" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H399" t="inlineStr">
         <is>
-          <t>3.86/100g</t>
+          <t>1.49/100g</t>
         </is>
       </c>
       <c r="I399" t="inlineStr">
@@ -27867,7 +27867,7 @@
       </c>
       <c r="J399" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="K399" t="inlineStr">
@@ -27882,55 +27882,51 @@
       </c>
       <c r="M399" t="inlineStr">
         <is>
-          <t>Garden Gourmet Sensational Schnitzel 6.95 Schweizer Franken</t>
+          <t>Yolo Schnitzel 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N399" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['frozen', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O399" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>6674353</t>
+          <t>6650440</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Yolo Schnitzel</t>
+          <t>Datteln Gondoles</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/yolo-schnitzel/p/6674353</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/weitere-exotische-fruechte/datteln-gondoles/p/6650440</t>
         </is>
       </c>
       <c r="D400" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E400" t="n">
-        <v>4</v>
-      </c>
-      <c r="F400" t="inlineStr">
-        <is>
-          <t>Yolo</t>
-        </is>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F400" t="inlineStr"/>
       <c r="G400" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H400" t="inlineStr">
         <is>
-          <t>1.49/100g</t>
+          <t>0.74/100g</t>
         </is>
       </c>
       <c r="I400" t="inlineStr">
@@ -27940,7 +27936,7 @@
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="K400" t="inlineStr">
@@ -27950,48 +27946,48 @@
       </c>
       <c r="L400" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'pflanzliche-alternativen-zu-fleisch']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'weitere-exotische-fruechte']</t>
         </is>
       </c>
       <c r="M400" t="inlineStr">
         <is>
-          <t>Yolo Schnitzel 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N400" t="inlineStr">
-        <is>
-          <t>['frozen', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Datteln Gondoles 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N400" t="inlineStr"/>
       <c r="O400" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>6650440</t>
+          <t>4437751</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Datteln Gondoles</t>
+          <t>Naturaplan Bio Pro Specie Rara Portulak</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/weitere-exotische-fruechte/datteln-gondoles/p/6650440</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/blattgemuese-artischocken/naturaplan-bio-pro-specie-rara-portulak/p/4437751</t>
         </is>
       </c>
       <c r="D401" t="n">
+        <v>2</v>
+      </c>
+      <c r="E401" t="n">
         <v>4</v>
       </c>
-      <c r="E401" t="n">
-        <v>5</v>
-      </c>
-      <c r="F401" t="inlineStr"/>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
       <c r="G401" t="inlineStr">
         <is>
           <t>2.95</t>
@@ -27999,7 +27995,7 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>0.74/100g</t>
+          <t>2.95/100g</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
@@ -28009,7 +28005,7 @@
       </c>
       <c r="J401" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="K401" t="inlineStr">
@@ -28019,42 +28015,42 @@
       </c>
       <c r="L401" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'weitere-exotische-fruechte']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'blattgemuese-artischocken']</t>
         </is>
       </c>
       <c r="M401" t="inlineStr">
         <is>
-          <t>Datteln Gondoles 2.95 Schweizer Franken</t>
+          <t>Naturaplan Bio Pro Specie Rara Portulak 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N401" t="inlineStr"/>
       <c r="O401" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>4437751</t>
+          <t>6984842</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Pro Specie Rara Portulak</t>
+          <t>Betty Bossi insalata tricolore</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/blattgemuese-artischocken/naturaplan-bio-pro-specie-rara-portulak/p/4437751</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/betty-bossi-insalata-tricolore/p/6984842</t>
         </is>
       </c>
       <c r="D402" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E402" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F402" t="inlineStr">
         <is>
@@ -28063,12 +28059,12 @@
       </c>
       <c r="G402" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>2.95/100g</t>
+          <t>1.84/100g</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
@@ -28078,7 +28074,7 @@
       </c>
       <c r="J402" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="K402" t="inlineStr">
@@ -28088,56 +28084,60 @@
       </c>
       <c r="L402" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'blattgemuese-artischocken']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
         </is>
       </c>
       <c r="M402" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Pro Specie Rara Portulak 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N402" t="inlineStr"/>
+          <t>Betty Bossi insalata tricolore 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N402" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegetarian', 'gluten_free', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="O402" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>6984842</t>
+          <t>6469381</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Betty Bossi insalata tricolore</t>
+          <t>Garden Gourmet Sensational vegan Burger</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/betty-bossi-insalata-tricolore/p/6984842</t>
+          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/garden-gourmet-sensational-vegan-burger/p/6469381</t>
         </is>
       </c>
       <c r="D403" t="n">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="E403" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="F403" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Garden Gourmet</t>
         </is>
       </c>
       <c r="G403" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>1.84/100g</t>
+          <t>2.88/100g</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
@@ -28147,7 +28147,7 @@
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="K403" t="inlineStr">
@@ -28157,60 +28157,60 @@
       </c>
       <c r="L403" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'pflanzliche-alternativen-zu-fleisch']</t>
         </is>
       </c>
       <c r="M403" t="inlineStr">
         <is>
-          <t>Betty Bossi insalata tricolore 3.95 Schweizer Franken</t>
+          <t>Garden Gourmet Sensational vegan Burger 6.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N403" t="inlineStr">
         <is>
-          <t>['chilled', 'vegetarian', 'gluten_free', 'lactose_free']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O403" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>6469381</t>
+          <t>6079008</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Garden Gourmet Sensational vegan Burger</t>
+          <t>Simply V Reibegenuss</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/garden-gourmet-sensational-vegan-burger/p/6469381</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/simply-v-reibegenuss/p/6079008</t>
         </is>
       </c>
       <c r="D404" t="n">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="E404" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F404" t="inlineStr">
         <is>
-          <t>Garden Gourmet</t>
+          <t>Simply V</t>
         </is>
       </c>
       <c r="G404" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>2.88/100g</t>
+          <t>1.98/100g</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
@@ -28220,7 +28220,7 @@
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="K404" t="inlineStr">
@@ -28230,22 +28230,22 @@
       </c>
       <c r="L404" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'pflanzliche-alternativen-zu-fleisch']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate']</t>
         </is>
       </c>
       <c r="M404" t="inlineStr">
         <is>
-          <t>Garden Gourmet Sensational vegan Burger 6.50 Schweizer Franken</t>
+          <t>Simply V Reibegenuss 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N404" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O404" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -28318,45 +28318,45 @@
       </c>
       <c r="O405" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>6079008</t>
+          <t>6820927</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Simply V Reibegenuss</t>
+          <t>Findus Green Cuisine Nuggets</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/simply-v-reibegenuss/p/6079008</t>
+          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/findus-green-cuisine-nuggets/p/6820927</t>
         </is>
       </c>
       <c r="D406" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E406" t="n">
         <v>4.5</v>
       </c>
       <c r="F406" t="inlineStr">
         <is>
-          <t>Simply V</t>
+          <t>Findus</t>
         </is>
       </c>
       <c r="G406" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>1.98/100g</t>
+          <t>2.38/100g</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
@@ -28366,7 +28366,7 @@
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="K406" t="inlineStr">
@@ -28376,22 +28376,22 @@
       </c>
       <c r="L406" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'pflanzliche-alternativen-zu-fleisch']</t>
         </is>
       </c>
       <c r="M406" t="inlineStr">
         <is>
-          <t>Simply V Reibegenuss 3.95 Schweizer Franken</t>
+          <t>Findus Green Cuisine Nuggets 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N406" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['frozen']</t>
         </is>
       </c>
       <c r="O406" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -28456,7 +28456,7 @@
       <c r="N407" t="inlineStr"/>
       <c r="O407" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -28529,7 +28529,7 @@
       </c>
       <c r="O408" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -28602,7 +28602,7 @@
       </c>
       <c r="O409" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -28675,7 +28675,7 @@
       </c>
       <c r="O410" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -28744,7 +28744,7 @@
       <c r="N411" t="inlineStr"/>
       <c r="O411" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -28813,7 +28813,7 @@
       </c>
       <c r="O412" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -28886,7 +28886,7 @@
       </c>
       <c r="O413" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -28955,7 +28955,7 @@
       <c r="N414" t="inlineStr"/>
       <c r="O414" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -29024,7 +29024,7 @@
       <c r="N415" t="inlineStr"/>
       <c r="O415" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -29097,7 +29097,7 @@
       </c>
       <c r="O416" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -29170,7 +29170,7 @@
       </c>
       <c r="O417" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -29243,7 +29243,7 @@
       </c>
       <c r="O418" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -29308,7 +29308,7 @@
       <c r="N419" t="inlineStr"/>
       <c r="O419" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -29381,7 +29381,7 @@
       </c>
       <c r="O420" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -29434,7 +29434,7 @@
       <c r="N421" t="inlineStr"/>
       <c r="O421" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -29503,7 +29503,7 @@
       <c r="N422" t="inlineStr"/>
       <c r="O422" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -29574,7 +29574,7 @@
       </c>
       <c r="O423" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -29639,7 +29639,7 @@
       <c r="N424" t="inlineStr"/>
       <c r="O424" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -29712,7 +29712,7 @@
       </c>
       <c r="O425" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -29781,7 +29781,7 @@
       <c r="N426" t="inlineStr"/>
       <c r="O426" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -29854,7 +29854,7 @@
       </c>
       <c r="O427" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -29927,7 +29927,7 @@
       </c>
       <c r="O428" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -30000,7 +30000,7 @@
       </c>
       <c r="O429" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -30043,13 +30043,13 @@
       </c>
       <c r="M430" t="inlineStr">
         <is>
-          <t>Cherimoya 1 Stück - Online kein Bestand 3.30 Schweizer Franken</t>
+          <t>Cherimoya 1 Stück 3.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N430" t="inlineStr"/>
       <c r="O430" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -30112,13 +30112,13 @@
       </c>
       <c r="M431" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Betty Bossi Kürbis-Würfel Hokkaido 5.70 Schweizer Franken</t>
+          <t>Naturaplan Bio Betty Bossi Kürbis-Würfel Hokkaido - Online kein Bestand 5.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N431" t="inlineStr"/>
       <c r="O431" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -30191,7 +30191,7 @@
       </c>
       <c r="O432" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -30260,7 +30260,7 @@
       <c r="N433" t="inlineStr"/>
       <c r="O433" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -30329,7 +30329,7 @@
       <c r="N434" t="inlineStr"/>
       <c r="O434" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -30396,7 +30396,7 @@
       <c r="N435" t="inlineStr"/>
       <c r="O435" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -30469,7 +30469,7 @@
       </c>
       <c r="O436" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -30542,7 +30542,7 @@
       </c>
       <c r="O437" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -30615,7 +30615,7 @@
       </c>
       <c r="O438" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -30688,7 +30688,7 @@
       </c>
       <c r="O439" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -30761,7 +30761,7 @@
       </c>
       <c r="O440" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -30832,7 +30832,7 @@
       </c>
       <c r="O441" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -30905,7 +30905,7 @@
       </c>
       <c r="O442" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -30974,7 +30974,7 @@
       <c r="N443" t="inlineStr"/>
       <c r="O443" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -31043,7 +31043,7 @@
       <c r="N444" t="inlineStr"/>
       <c r="O444" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -31108,7 +31108,7 @@
       <c r="N445" t="inlineStr"/>
       <c r="O445" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -31181,7 +31181,7 @@
       </c>
       <c r="O446" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -31254,7 +31254,7 @@
       </c>
       <c r="O447" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -31327,7 +31327,7 @@
       </c>
       <c r="O448" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -31400,7 +31400,7 @@
       </c>
       <c r="O449" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -31469,7 +31469,7 @@
       <c r="N450" t="inlineStr"/>
       <c r="O450" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -31522,7 +31522,7 @@
       <c r="N451" t="inlineStr"/>
       <c r="O451" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -31591,7 +31591,7 @@
       <c r="N452" t="inlineStr"/>
       <c r="O452" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -31662,31 +31662,31 @@
       </c>
       <c r="O453" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>6649016</t>
+          <t>4829868</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Kartoffelsalat</t>
+          <t>Pro Montagna Bio Berg-Chilischoten</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertige-salate/naturaplan-bio-kartoffelsalat/p/6649016</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/chili-zitronengras-ingwer/pro-montagna-bio-berg-chilischoten/p/4829868</t>
         </is>
       </c>
       <c r="D454" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E454" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F454" t="inlineStr">
         <is>
@@ -31695,12 +31695,12 @@
       </c>
       <c r="G454" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H454" t="inlineStr">
         <is>
-          <t>1.98/100g</t>
+          <t>82.50/100g</t>
         </is>
       </c>
       <c r="I454" t="inlineStr">
@@ -31710,7 +31710,7 @@
       </c>
       <c r="J454" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>82.50</t>
         </is>
       </c>
       <c r="K454" t="inlineStr">
@@ -31720,46 +31720,42 @@
       </c>
       <c r="L454" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertige-salate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kraeuter-gewuerze', 'chili-zitronengras-ingwer']</t>
         </is>
       </c>
       <c r="M454" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Kartoffelsalat 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N454" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Pro Montagna Bio Berg-Chilischoten 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N454" t="inlineStr"/>
       <c r="O454" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>4829868</t>
+          <t>6649016</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Pro Montagna Bio Berg-Chilischoten</t>
+          <t>Naturaplan Bio Kartoffelsalat</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/chili-zitronengras-ingwer/pro-montagna-bio-berg-chilischoten/p/4829868</t>
+          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertige-salate/naturaplan-bio-kartoffelsalat/p/6649016</t>
         </is>
       </c>
       <c r="D455" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E455" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F455" t="inlineStr">
         <is>
@@ -31768,12 +31764,12 @@
       </c>
       <c r="G455" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H455" t="inlineStr">
         <is>
-          <t>82.50/100g</t>
+          <t>1.98/100g</t>
         </is>
       </c>
       <c r="I455" t="inlineStr">
@@ -31783,7 +31779,7 @@
       </c>
       <c r="J455" t="inlineStr">
         <is>
-          <t>82.50</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="K455" t="inlineStr">
@@ -31793,18 +31789,22 @@
       </c>
       <c r="L455" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kraeuter-gewuerze', 'chili-zitronengras-ingwer']</t>
+          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertige-salate']</t>
         </is>
       </c>
       <c r="M455" t="inlineStr">
         <is>
-          <t>Pro Montagna Bio Berg-Chilischoten 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N455" t="inlineStr"/>
+          <t>Naturaplan Bio Kartoffelsalat 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N455" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O455" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -31877,7 +31877,7 @@
       </c>
       <c r="O456" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -31944,143 +31944,143 @@
       <c r="N457" t="inlineStr"/>
       <c r="O457" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>6881617</t>
+          <t>7042359</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Prix Garantie Pasta-Salat mit Tomaten</t>
+          <t>Kürbis Butternuss halbiert 1.2kg</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertige-salate/prix-garantie-pasta-salat-mit-tomaten/p/6881617</t>
-        </is>
-      </c>
-      <c r="D458" t="n">
-        <v>2</v>
-      </c>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/zucchetti-kuerbis-aubergine/kuerbis-butternuss-halbiert/p/7042359</t>
+        </is>
+      </c>
+      <c r="D458" t="inlineStr"/>
       <c r="E458" t="n">
-        <v>2</v>
-      </c>
-      <c r="F458" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F458" t="inlineStr"/>
       <c r="G458" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>0.65/100g</t>
+          <t>4.95/1kg</t>
         </is>
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="K458" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="L458" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertige-salate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'zucchetti-kuerbis-aubergine']</t>
         </is>
       </c>
       <c r="M458" t="inlineStr">
         <is>
-          <t>Prix Garantie Pasta-Salat mit Tomaten 1.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N458" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Kürbis Butternuss halbiert 1.2kg 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N458" t="inlineStr"/>
       <c r="O458" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>7042359</t>
+          <t>6881617</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Kürbis Butternuss halbiert 1.2kg</t>
+          <t>Prix Garantie Pasta-Salat mit Tomaten</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/zucchetti-kuerbis-aubergine/kuerbis-butternuss-halbiert/p/7042359</t>
-        </is>
-      </c>
-      <c r="D459" t="inlineStr"/>
+          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertige-salate/prix-garantie-pasta-salat-mit-tomaten/p/6881617</t>
+        </is>
+      </c>
+      <c r="D459" t="n">
+        <v>2</v>
+      </c>
       <c r="E459" t="n">
-        <v>0</v>
-      </c>
-      <c r="F459" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
       <c r="G459" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H459" t="inlineStr">
         <is>
-          <t>4.95/1kg</t>
+          <t>0.65/100g</t>
         </is>
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="K459" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L459" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'zucchetti-kuerbis-aubergine']</t>
+          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertige-salate']</t>
         </is>
       </c>
       <c r="M459" t="inlineStr">
         <is>
-          <t>Kürbis Butternuss halbiert 1.2kg 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N459" t="inlineStr"/>
+          <t>Prix Garantie Pasta-Salat mit Tomaten 1.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N459" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O459" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -32149,7 +32149,7 @@
       <c r="N460" t="inlineStr"/>
       <c r="O460" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -32214,31 +32214,29 @@
       <c r="N461" t="inlineStr"/>
       <c r="O461" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>6073294</t>
+          <t>7107447</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Kitchen-Classics Box</t>
+          <t>Bio Pro Specie Rara Karotten Gniff</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte-gemueseboxen/naturaplan-bio-kitchen-classics-box/p/6073294</t>
-        </is>
-      </c>
-      <c r="D462" t="n">
-        <v>16</v>
-      </c>
+          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/rueebli-pastinaken/bio-pro-specie-rara-karotten-gniff/p/7107447</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr"/>
       <c r="E462" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F462" t="inlineStr">
         <is>
@@ -32247,65 +32245,67 @@
       </c>
       <c r="G462" t="inlineStr">
         <is>
-          <t>19.00</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H462" t="inlineStr">
         <is>
-          <t>6.33/1kg</t>
+          <t>0.79/100g</t>
         </is>
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
         <is>
-          <t>6.33</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="K462" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L462" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte-gemueseboxen']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese', 'rueebli-pastinaken']</t>
         </is>
       </c>
       <c r="M462" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Kitchen-Classics Box 19.00 Schweizer Franken</t>
+          <t>Bio Pro Specie Rara Karotten Gniff 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N462" t="inlineStr"/>
       <c r="O462" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>7107447</t>
+          <t>6073294</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Bio Pro Specie Rara Karotten Gniff</t>
+          <t>Naturaplan Bio Kitchen-Classics Box</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/rueebli-pastinaken/bio-pro-specie-rara-karotten-gniff/p/7107447</t>
-        </is>
-      </c>
-      <c r="D463" t="inlineStr"/>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte-gemueseboxen/naturaplan-bio-kitchen-classics-box/p/6073294</t>
+        </is>
+      </c>
+      <c r="D463" t="n">
+        <v>16</v>
+      </c>
       <c r="E463" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F463" t="inlineStr">
         <is>
@@ -32314,43 +32314,43 @@
       </c>
       <c r="G463" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>19.00</t>
         </is>
       </c>
       <c r="H463" t="inlineStr">
         <is>
-          <t>0.79/100g</t>
+          <t>6.33/1kg</t>
         </is>
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>6.33</t>
         </is>
       </c>
       <c r="K463" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="L463" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese', 'rueebli-pastinaken']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte-gemueseboxen']</t>
         </is>
       </c>
       <c r="M463" t="inlineStr">
         <is>
-          <t>Bio Pro Specie Rara Karotten Gniff 3.95 Schweizer Franken</t>
+          <t>Naturaplan Bio Kitchen-Classics Box 19.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="N463" t="inlineStr"/>
       <c r="O463" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -32417,7 +32417,7 @@
       <c r="N464" t="inlineStr"/>
       <c r="O464" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -32470,7 +32470,7 @@
       <c r="N465" t="inlineStr"/>
       <c r="O465" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -32543,7 +32543,7 @@
       </c>
       <c r="O466" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -32616,7 +32616,7 @@
       </c>
       <c r="O467" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -32689,7 +32689,7 @@
       </c>
       <c r="O468" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -32762,7 +32762,7 @@
       </c>
       <c r="O469" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -32835,7 +32835,7 @@
       </c>
       <c r="O470" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -32900,7 +32900,7 @@
       <c r="N471" t="inlineStr"/>
       <c r="O471" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -32973,7 +32973,7 @@
       </c>
       <c r="O472" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -33046,7 +33046,7 @@
       </c>
       <c r="O473" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -33115,145 +33115,145 @@
       <c r="N474" t="inlineStr"/>
       <c r="O474" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>4434295</t>
+          <t>4513438</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Family Früchtebox</t>
+          <t>Wakame Salat mit Algen</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte-gemueseboxen/naturaplan-bio-family-fruechtebox/p/4434295</t>
+          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertige-salate/wakame-salat-mit-algen/p/4513438</t>
         </is>
       </c>
       <c r="D475" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E475" t="n">
-        <v>3</v>
-      </c>
-      <c r="F475" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F475" t="inlineStr"/>
       <c r="G475" t="inlineStr">
         <is>
-          <t>24.40</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H475" t="inlineStr">
         <is>
-          <t>8.13/1kg</t>
+          <t>3.16/100g</t>
         </is>
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J475" t="inlineStr">
         <is>
-          <t>8.13</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="K475" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L475" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte-gemueseboxen']</t>
+          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertige-salate']</t>
         </is>
       </c>
       <c r="M475" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Family Früchtebox 24.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N475" t="inlineStr"/>
+          <t>Wakame Salat mit Algen 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N475" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O475" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>4513438</t>
+          <t>4434295</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Wakame Salat mit Algen</t>
+          <t>Naturaplan Bio Family Früchtebox</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertige-salate/wakame-salat-mit-algen/p/4513438</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte-gemueseboxen/naturaplan-bio-family-fruechtebox/p/4434295</t>
         </is>
       </c>
       <c r="D476" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E476" t="n">
-        <v>5</v>
-      </c>
-      <c r="F476" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="F476" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
       <c r="G476" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>24.40</t>
         </is>
       </c>
       <c r="H476" t="inlineStr">
         <is>
-          <t>3.16/100g</t>
+          <t>8.13/1kg</t>
         </is>
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>8.13</t>
         </is>
       </c>
       <c r="K476" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="L476" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertige-salate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte-gemueseboxen']</t>
         </is>
       </c>
       <c r="M476" t="inlineStr">
         <is>
-          <t>Wakame Salat mit Algen 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N476" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Family Früchtebox 24.40 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N476" t="inlineStr"/>
       <c r="O476" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -33326,7 +33326,7 @@
       </c>
       <c r="O477" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -33391,7 +33391,7 @@
       <c r="N478" t="inlineStr"/>
       <c r="O478" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -33442,7 +33442,7 @@
       <c r="N479" t="inlineStr"/>
       <c r="O479" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -33515,39 +33515,45 @@
       </c>
       <c r="O480" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>6540254</t>
+          <t>5756805</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Chicoree mix</t>
+          <t>Naturaplan Bio Nüsslisalat</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/ganze-salate/chicoree-mix/p/6540254</t>
-        </is>
-      </c>
-      <c r="D481" t="inlineStr"/>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/naturaplan-bio-nuesslisalat/p/5756805</t>
+        </is>
+      </c>
+      <c r="D481" t="n">
+        <v>2</v>
+      </c>
       <c r="E481" t="n">
-        <v>0</v>
-      </c>
-      <c r="F481" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F481" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
       <c r="G481" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>7.40</t>
         </is>
       </c>
       <c r="H481" t="inlineStr">
         <is>
-          <t>0.74/100g</t>
+          <t>4.93/100g</t>
         </is>
       </c>
       <c r="I481" t="inlineStr">
@@ -33557,7 +33563,7 @@
       </c>
       <c r="J481" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="K481" t="inlineStr">
@@ -33567,112 +33573,110 @@
       </c>
       <c r="L481" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'ganze-salate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
         </is>
       </c>
       <c r="M481" t="inlineStr">
         <is>
-          <t>Chicoree mix 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N481" t="inlineStr"/>
+          <t>Naturaplan Bio Nüsslisalat 7.40 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N481" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O481" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>6073361</t>
+          <t>6540254</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Saisonfrüchte Box</t>
+          <t>Chicoree mix</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte-gemueseboxen/naturaplan-bio-saisonfruechte-box/p/6073361</t>
-        </is>
-      </c>
-      <c r="D482" t="n">
-        <v>22</v>
-      </c>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/ganze-salate/chicoree-mix/p/6540254</t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr"/>
       <c r="E482" t="n">
-        <v>2</v>
-      </c>
-      <c r="F482" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F482" t="inlineStr"/>
       <c r="G482" t="inlineStr">
         <is>
-          <t>20.00</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H482" t="inlineStr">
         <is>
-          <t>6.67/1kg</t>
+          <t>0.74/100g</t>
         </is>
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J482" t="inlineStr">
         <is>
-          <t>6.67</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="K482" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L482" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte-gemueseboxen']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'ganze-salate']</t>
         </is>
       </c>
       <c r="M482" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Saisonfrüchte Box 20.00 Schweizer Franken</t>
+          <t>Chicoree mix 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N482" t="inlineStr"/>
       <c r="O482" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>5756805</t>
+          <t>6073361</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Nüsslisalat</t>
+          <t>Naturaplan Bio Saisonfrüchte Box</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/naturaplan-bio-nuesslisalat/p/5756805</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte-gemueseboxen/naturaplan-bio-saisonfruechte-box/p/6073361</t>
         </is>
       </c>
       <c r="D483" t="n">
+        <v>22</v>
+      </c>
+      <c r="E483" t="n">
         <v>2</v>
       </c>
-      <c r="E483" t="n">
-        <v>1</v>
-      </c>
       <c r="F483" t="inlineStr">
         <is>
           <t>Coop</t>
@@ -33680,47 +33684,43 @@
       </c>
       <c r="G483" t="inlineStr">
         <is>
-          <t>7.40</t>
+          <t>20.00</t>
         </is>
       </c>
       <c r="H483" t="inlineStr">
         <is>
-          <t>4.93/100g</t>
+          <t>6.67/1kg</t>
         </is>
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="J483" t="inlineStr">
         <is>
-          <t>4.93</t>
+          <t>6.67</t>
         </is>
       </c>
       <c r="K483" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="L483" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte-gemueseboxen']</t>
         </is>
       </c>
       <c r="M483" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Nüsslisalat 7.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N483" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Saisonfrüchte Box 20.00 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N483" t="inlineStr"/>
       <c r="O483" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -33793,7 +33793,7 @@
       </c>
       <c r="O484" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -33858,7 +33858,7 @@
       <c r="N485" t="inlineStr"/>
       <c r="O485" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -33931,7 +33931,7 @@
       </c>
       <c r="O486" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -34004,7 +34004,7 @@
       </c>
       <c r="O487" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -34077,7 +34077,7 @@
       </c>
       <c r="O488" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -34150,7 +34150,7 @@
       </c>
       <c r="O489" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -34223,7 +34223,7 @@
       </c>
       <c r="O490" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -34288,7 +34288,7 @@
       <c r="N491" t="inlineStr"/>
       <c r="O491" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -34361,7 +34361,7 @@
       </c>
       <c r="O492" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -34430,7 +34430,7 @@
       <c r="N493" t="inlineStr"/>
       <c r="O493" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -34503,7 +34503,7 @@
       </c>
       <c r="O494" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -34576,7 +34576,7 @@
       </c>
       <c r="O495" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -34649,7 +34649,7 @@
       </c>
       <c r="O496" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -34722,7 +34722,7 @@
       </c>
       <c r="O497" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -34793,7 +34793,7 @@
       </c>
       <c r="O498" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -34866,7 +34866,7 @@
       </c>
       <c r="O499" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -34939,7 +34939,7 @@
       </c>
       <c r="O500" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -35012,7 +35012,7 @@
       </c>
       <c r="O501" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -35079,7 +35079,7 @@
       <c r="N502" t="inlineStr"/>
       <c r="O502" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -35152,7 +35152,7 @@
       </c>
       <c r="O503" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -35209,7 +35209,7 @@
       </c>
       <c r="O504" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -35274,7 +35274,7 @@
       <c r="N505" t="inlineStr"/>
       <c r="O505" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -35341,7 +35341,7 @@
       <c r="N506" t="inlineStr"/>
       <c r="O506" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -35410,7 +35410,7 @@
       </c>
       <c r="O507" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -35479,7 +35479,7 @@
       </c>
       <c r="O508" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -35552,7 +35552,7 @@
       </c>
       <c r="O509" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -35621,7 +35621,7 @@
       <c r="N510" t="inlineStr"/>
       <c r="O510" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -35690,7 +35690,7 @@
       </c>
       <c r="O511" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -35755,7 +35755,7 @@
       <c r="N512" t="inlineStr"/>
       <c r="O512" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -35828,7 +35828,7 @@
       </c>
       <c r="O513" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -35893,7 +35893,7 @@
       <c r="N514" t="inlineStr"/>
       <c r="O514" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -35958,7 +35958,7 @@
       <c r="N515" t="inlineStr"/>
       <c r="O515" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -36031,7 +36031,7 @@
       </c>
       <c r="O516" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -36100,7 +36100,7 @@
       <c r="N517" t="inlineStr"/>
       <c r="O517" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -36173,7 +36173,7 @@
       </c>
       <c r="O518" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -36246,7 +36246,7 @@
       </c>
       <c r="O519" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -36319,7 +36319,7 @@
       </c>
       <c r="O520" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -36382,7 +36382,7 @@
       <c r="N521" t="inlineStr"/>
       <c r="O521" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -36455,7 +36455,7 @@
       </c>
       <c r="O522" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -36528,7 +36528,7 @@
       </c>
       <c r="O523" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -36599,7 +36599,7 @@
       </c>
       <c r="O524" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -36670,7 +36670,7 @@
       </c>
       <c r="O525" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -36743,7 +36743,7 @@
       </c>
       <c r="O526" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -36816,7 +36816,7 @@
       </c>
       <c r="O527" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -36887,7 +36887,7 @@
       </c>
       <c r="O528" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -36954,7 +36954,7 @@
       <c r="N529" t="inlineStr"/>
       <c r="O529" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -37027,7 +37027,7 @@
       </c>
       <c r="O530" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -37100,7 +37100,7 @@
       </c>
       <c r="O531" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -37151,7 +37151,7 @@
       <c r="N532" t="inlineStr"/>
       <c r="O532" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -37220,7 +37220,7 @@
       </c>
       <c r="O533" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -37289,7 +37289,7 @@
       <c r="N534" t="inlineStr"/>
       <c r="O534" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -37356,7 +37356,7 @@
       <c r="N535" t="inlineStr"/>
       <c r="O535" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -37421,7 +37421,7 @@
       <c r="N536" t="inlineStr"/>
       <c r="O536" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -37490,7 +37490,7 @@
       <c r="N537" t="inlineStr"/>
       <c r="O537" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -37563,7 +37563,7 @@
       </c>
       <c r="O538" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -37636,7 +37636,7 @@
       </c>
       <c r="O539" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -37705,7 +37705,7 @@
       <c r="N540" t="inlineStr"/>
       <c r="O540" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -37774,7 +37774,7 @@
       <c r="N541" t="inlineStr"/>
       <c r="O541" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -37841,7 +37841,7 @@
       </c>
       <c r="O542" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -37914,7 +37914,7 @@
       </c>
       <c r="O543" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -37983,7 +37983,7 @@
       <c r="N544" t="inlineStr"/>
       <c r="O544" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -38050,7 +38050,7 @@
       <c r="N545" t="inlineStr"/>
       <c r="O545" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -38119,7 +38119,7 @@
       </c>
       <c r="O546" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -38192,7 +38192,7 @@
       </c>
       <c r="O547" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -38265,7 +38265,7 @@
       </c>
       <c r="O548" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -38338,7 +38338,7 @@
       </c>
       <c r="O549" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -38405,7 +38405,7 @@
       </c>
       <c r="O550" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -38470,7 +38470,7 @@
       <c r="N551" t="inlineStr"/>
       <c r="O551" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -38537,7 +38537,7 @@
       <c r="N552" t="inlineStr"/>
       <c r="O552" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -38610,7 +38610,7 @@
       </c>
       <c r="O553" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -38683,7 +38683,7 @@
       </c>
       <c r="O554" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -38750,7 +38750,7 @@
       <c r="N555" t="inlineStr"/>
       <c r="O555" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -38821,7 +38821,7 @@
       </c>
       <c r="O556" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -38890,7 +38890,7 @@
       <c r="N557" t="inlineStr"/>
       <c r="O557" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -38963,7 +38963,7 @@
       </c>
       <c r="O558" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -39030,7 +39030,7 @@
       <c r="N559" t="inlineStr"/>
       <c r="O559" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -39101,7 +39101,7 @@
       </c>
       <c r="O560" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -39170,7 +39170,7 @@
       </c>
       <c r="O561" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -39241,7 +39241,7 @@
       </c>
       <c r="O562" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -39312,7 +39312,7 @@
       </c>
       <c r="O563" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -39377,7 +39377,7 @@
       <c r="N564" t="inlineStr"/>
       <c r="O564" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -39440,7 +39440,7 @@
       <c r="N565" t="inlineStr"/>
       <c r="O565" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
@@ -39505,7 +39505,7 @@
       <c r="N566" t="inlineStr"/>
       <c r="O566" t="inlineStr">
         <is>
-          <t>2022-12-14 16:26:13</t>
+          <t>2022-12-14 20:51:54</t>
         </is>
       </c>
     </row>
